--- a/InputForCode_Kenya.xlsx
+++ b/InputForCode_Kenya.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="79">
   <si>
     <t>&lt;1 month</t>
   </si>
@@ -245,7 +245,10 @@
     <t>Vitamin A supplementation</t>
   </si>
   <si>
-    <t>Complementary feeding</t>
+    <t>Complementary feeding (education)</t>
+  </si>
+  <si>
+    <t>Complementary feeding (supplementation)</t>
   </si>
   <si>
     <t>IPTp</t>
@@ -258,6 +261,9 @@
   </si>
   <si>
     <t>pregnant women</t>
+  </si>
+  <si>
+    <t>Food insecure fraction</t>
   </si>
   <si>
     <t>Outcome</t>
@@ -348,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -395,14 +401,26 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1233,14 +1251,14 @@
         <v>0.85</v>
       </c>
       <c r="D3" s="4">
-        <v>300.0</v>
+        <v>60.0</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="17"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="18" t="s">
         <v>58</v>
       </c>
       <c r="B4" s="4">
@@ -1257,17 +1275,17 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>53</v>
+      <c r="A5" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="B5" s="4">
-        <v>0.296</v>
+        <v>0.0</v>
       </c>
       <c r="C5" s="4">
         <v>0.85</v>
       </c>
       <c r="D5" s="4">
-        <v>100.0</v>
+        <v>10000.0</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="17"/>
@@ -1275,40 +1293,40 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B6" s="4">
-        <v>0.257</v>
+        <v>0.296</v>
       </c>
       <c r="C6" s="4">
         <v>0.85</v>
       </c>
       <c r="D6" s="4">
-        <v>20.0</v>
+        <v>300.0</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="17"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B7" s="4">
-        <v>0.0</v>
+        <v>0.257</v>
       </c>
       <c r="C7" s="4">
         <v>0.85</v>
       </c>
       <c r="D7" s="4">
-        <v>80.0</v>
+        <v>20.0</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="17"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8">
-      <c r="A8" s="10" t="s">
+      <c r="A8" t="s">
         <v>61</v>
       </c>
       <c r="B8" s="4">
@@ -1318,17 +1336,27 @@
         <v>0.85</v>
       </c>
       <c r="D8" s="4">
-        <v>90.0</v>
+        <v>1000.0</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="17"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9">
-      <c r="B9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="D9" s="4">
+        <v>300.0</v>
+      </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="F9" s="17"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10">
@@ -1375,7 +1403,10 @@
     </row>
     <row r="16">
       <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17">
       <c r="B17" s="4"/>
@@ -1420,6 +1451,10 @@
     <row r="27">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1436,6 +1471,7 @@
     <col customWidth="1" min="1" max="1" width="37.71"/>
     <col customWidth="1" min="2" max="6" width="13.57"/>
     <col customWidth="1" min="7" max="7" width="17.29"/>
+    <col customWidth="1" min="9" max="9" width="17.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1458,29 +1494,35 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="20">
+        <v>0.34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="C2" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="D2" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="F2" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="G2" s="18">
+      <c r="B2" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="G2" s="21">
         <v>0.0</v>
       </c>
     </row>
@@ -1488,146 +1530,206 @@
       <c r="A3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="F3" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="G3" s="18">
+      <c r="B3" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="F3" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="G3" s="21">
         <v>0.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="C4" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="F4" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="G4" s="18">
-        <v>0.0</v>
-      </c>
+      <c r="B4" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="F4" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G4" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="C5" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="E5" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="F5" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="18">
-        <v>0.0</v>
-      </c>
+      <c r="A5" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="22" t="str">
+        <f t="shared" ref="C5:F5" si="1">$J$1</f>
+        <v>0.34</v>
+      </c>
+      <c r="D5" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>0.34</v>
+      </c>
+      <c r="E5" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>0.34</v>
+      </c>
+      <c r="F5" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>0.34</v>
+      </c>
+      <c r="G5" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="C6" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="D6" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G6" s="18">
-        <v>1.0</v>
+        <v>53</v>
+      </c>
+      <c r="B6" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="C6" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="D6" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="21">
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="C7" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G7" s="18">
+      <c r="B7" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="21">
         <v>1.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="10" t="s">
+      <c r="A8" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="C8" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="D8" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="E8" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G8" s="18">
+      <c r="B8" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="21">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="A9" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="21">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="B10" s="4"/>
@@ -1673,7 +1775,10 @@
     </row>
     <row r="16">
       <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17">
       <c r="B17" s="4"/>
@@ -1718,6 +1823,10 @@
     <row r="27">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2111,7 +2220,7 @@
         <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
         <v>36</v>
@@ -2128,112 +2237,115 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="19">
+        <v>66</v>
+      </c>
+      <c r="C2" s="23">
         <v>0.35</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="23">
         <v>0.35</v>
       </c>
-      <c r="E2" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="19">
+      <c r="E2" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="23">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="20">
+        <v>67</v>
+      </c>
+      <c r="C3" s="24">
         <v>0.1</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="24">
         <v>0.1</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="24">
         <v>0.1</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="24">
         <v>0.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="19">
+        <v>66</v>
+      </c>
+      <c r="C4" s="23">
         <v>0.31</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="23">
         <v>0.31</v>
       </c>
-      <c r="E4" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="19">
+      <c r="E4" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="23">
         <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="19">
-        <v>0.336</v>
-      </c>
-      <c r="D5" s="19">
-        <v>0.336</v>
-      </c>
-      <c r="E5" s="19">
-        <v>0.336</v>
-      </c>
-      <c r="F5" s="19">
+        <v>67</v>
+      </c>
+      <c r="C5" s="25" t="str">
+        <f>'Interventions target population'!$J$1</f>
+        <v>0.34</v>
+      </c>
+      <c r="D5" s="25" t="str">
+        <f>'Interventions target population'!$J$1</f>
+        <v>0.34</v>
+      </c>
+      <c r="E5" s="25" t="str">
+        <f>'Interventions target population'!$J$1</f>
+        <v>0.34</v>
+      </c>
+      <c r="F5" s="23">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="19">
+        <v>66</v>
+      </c>
+      <c r="C6" s="23">
         <v>0.09</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="23">
         <v>0.09</v>
       </c>
-      <c r="E6" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="19">
+      <c r="E6" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="23">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="F7" s="19">
+        <v>67</v>
+      </c>
+      <c r="C7" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="23">
         <v>0.0</v>
       </c>
     </row>
@@ -2254,7 +2366,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>5</v>
@@ -2291,10 +2403,10 @@
       <c r="E2" s="4">
         <v>0.0</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="26">
         <v>0.253</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="26">
         <v>0.253</v>
       </c>
     </row>
@@ -2312,10 +2424,10 @@
       <c r="E3" s="4">
         <v>0.0</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="26">
         <v>0.253</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="26">
         <v>0.253</v>
       </c>
     </row>
@@ -2335,10 +2447,10 @@
       <c r="E4" s="4">
         <v>0.416</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="20">
         <v>0.416</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="20">
         <v>0.416</v>
       </c>
     </row>
@@ -2400,7 +2512,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>5</v>
@@ -2543,7 +2655,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>5</v>
@@ -2686,19 +2798,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
@@ -2706,7 +2818,7 @@
         <v>36</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" s="4">
         <v>3.14</v>
@@ -2721,7 +2833,7 @@
     <row r="3">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="4">
         <v>1.6</v>
@@ -2736,7 +2848,7 @@
     <row r="4">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C4" s="4">
         <v>1.6</v>
@@ -2753,7 +2865,7 @@
         <v>37</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C5" s="4">
         <v>1.75</v>
@@ -2767,7 +2879,7 @@
     </row>
     <row r="6">
       <c r="B6" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C6" s="4">
         <v>1.4</v>
@@ -2781,7 +2893,7 @@
     </row>
     <row r="7">
       <c r="B7" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C7" s="4">
         <v>1.4</v>
@@ -2798,7 +2910,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C8" s="4">
         <v>1.52</v>
@@ -2812,7 +2924,7 @@
     </row>
     <row r="9">
       <c r="B9" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C9" s="4">
         <v>1.2</v>
@@ -2826,7 +2938,7 @@
     </row>
     <row r="10">
       <c r="B10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C10" s="4">
         <v>1.2</v>
@@ -2852,22 +2964,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" s="4"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B2" s="4">
         <v>0.0543</v>
@@ -2881,7 +2993,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B3" s="4">
         <v>0.009</v>
@@ -2895,7 +3007,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B4" s="4">
         <v>0.0</v>
@@ -2921,16 +3033,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
@@ -2961,19 +3073,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">

--- a/InputForCode_Kenya.xlsx
+++ b/InputForCode_Kenya.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="84">
   <si>
     <t>indicators</t>
   </si>
@@ -280,9 +280,6 @@
   </si>
   <si>
     <t>pregnant women</t>
-  </si>
-  <si>
-    <t>Food insecure fraction</t>
   </si>
   <si>
     <t>Outcome</t>
@@ -1625,12 +1622,8 @@
       <c r="G1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="22">
-        <v>0.34</v>
-      </c>
+      <c r="I1" s="21"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1729,19 +1722,19 @@
         <v>0.0</v>
       </c>
       <c r="C5" s="24" t="str">
-        <f t="shared" ref="C5:F5" si="1">$J$1</f>
+        <f>demographics!$B$5</f>
         <v>0.34</v>
       </c>
       <c r="D5" s="24" t="str">
-        <f t="shared" si="1"/>
+        <f>demographics!$B$5</f>
         <v>0.34</v>
       </c>
       <c r="E5" s="24" t="str">
-        <f t="shared" si="1"/>
+        <f>demographics!$B$5</f>
         <v>0.34</v>
       </c>
       <c r="F5" s="24" t="str">
-        <f t="shared" si="1"/>
+        <f>demographics!$B$5</f>
         <v>0.34</v>
       </c>
       <c r="G5" s="24">
@@ -1977,7 +1970,7 @@
         <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
         <v>42</v>
@@ -1997,7 +1990,7 @@
         <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="25">
         <v>0.35</v>
@@ -2014,7 +2007,7 @@
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="26">
         <v>0.1</v>
@@ -2034,7 +2027,7 @@
         <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="25">
         <v>0.31</v>
@@ -2051,18 +2044,18 @@
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="27" t="str">
-        <f>'Interventions target population'!$J$1</f>
+        <f>demographics!$B$5</f>
         <v>0.34</v>
       </c>
       <c r="D5" s="27" t="str">
-        <f>'Interventions target population'!$J$1</f>
+        <f>demographics!$B$5</f>
         <v>0.34</v>
       </c>
       <c r="E5" s="27" t="str">
-        <f>'Interventions target population'!$J$1</f>
+        <f>demographics!$B$5</f>
         <v>0.34</v>
       </c>
       <c r="F5" s="25">
@@ -2074,7 +2067,7 @@
         <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="25">
         <v>0.09</v>
@@ -2091,7 +2084,7 @@
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="25">
         <v>1.0</v>
@@ -2123,7 +2116,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>11</v>
@@ -2269,7 +2262,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>11</v>
@@ -2412,7 +2405,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>11</v>
@@ -2555,19 +2548,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2">
@@ -2575,7 +2568,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2">
         <v>3.14</v>
@@ -2590,7 +2583,7 @@
     <row r="3">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2">
         <v>1.6</v>
@@ -2605,7 +2598,7 @@
     <row r="4">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2">
         <v>1.6</v>
@@ -2622,7 +2615,7 @@
         <v>43</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2">
         <v>1.75</v>
@@ -2636,7 +2629,7 @@
     </row>
     <row r="6">
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2">
         <v>1.4</v>
@@ -2650,7 +2643,7 @@
     </row>
     <row r="7">
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2">
         <v>1.4</v>
@@ -2667,7 +2660,7 @@
         <v>44</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2">
         <v>1.52</v>
@@ -2681,7 +2674,7 @@
     </row>
     <row r="9">
       <c r="B9" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2">
         <v>1.2</v>
@@ -2695,7 +2688,7 @@
     </row>
     <row r="10">
       <c r="B10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="2">
         <v>1.2</v>
@@ -2721,22 +2714,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="E1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="2">
         <v>0.0543</v>
@@ -2750,7 +2743,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2">
         <v>0.009</v>
@@ -2764,7 +2757,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2">
         <v>0.0</v>
@@ -2790,16 +2783,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2">
@@ -2830,19 +2823,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2">

--- a/InputForCode_Kenya.xlsx
+++ b/InputForCode_Kenya.xlsx
@@ -4,33 +4,34 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="demographics" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="total mortality" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="mortality" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="distributions" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="birth outcome distribution" sheetId="5" r:id="rId7"/>
-    <sheet state="visible" name="RRStunting" sheetId="6" r:id="rId8"/>
-    <sheet state="visible" name="RRWasting" sheetId="7" r:id="rId9"/>
-    <sheet state="visible" name="RRBreastfeeding" sheetId="8" r:id="rId10"/>
-    <sheet state="visible" name="RR Death by Birth Outcome" sheetId="9" r:id="rId11"/>
-    <sheet state="visible" name="OR stunting progression" sheetId="10" r:id="rId12"/>
-    <sheet state="visible" name="Incidence of conditions" sheetId="11" r:id="rId13"/>
-    <sheet state="visible" name="RR diarrhoea" sheetId="12" r:id="rId14"/>
-    <sheet state="visible" name="OR stunting by condition" sheetId="13" r:id="rId15"/>
-    <sheet state="visible" name="OR stunting by birth outcome" sheetId="14" r:id="rId16"/>
-    <sheet state="visible" name="OR stunting by intervention" sheetId="15" r:id="rId17"/>
-    <sheet state="visible" name="OR stunting for complements" sheetId="16" r:id="rId18"/>
-    <sheet state="visible" name="OR appropriateBF by interv" sheetId="17" r:id="rId19"/>
-    <sheet state="visible" name="Appropriate breastfeeding" sheetId="18" r:id="rId20"/>
-    <sheet state="visible" name="Interventions coverages" sheetId="19" r:id="rId21"/>
-    <sheet state="visible" name="Interventions target population" sheetId="20" r:id="rId22"/>
-    <sheet state="visible" name="Interventions maternal" sheetId="21" r:id="rId23"/>
-    <sheet state="visible" name="Interventions affected fraction" sheetId="22" r:id="rId24"/>
-    <sheet state="visible" name="Interventions mortality eff" sheetId="23" r:id="rId25"/>
-    <sheet state="visible" name="Interventions incidence eff" sheetId="24" r:id="rId26"/>
-    <sheet state="visible" name="RR birth by type" sheetId="25" r:id="rId27"/>
-    <sheet state="visible" name="birth distribution" sheetId="26" r:id="rId28"/>
-    <sheet state="visible" name="time between births" sheetId="27" r:id="rId29"/>
-    <sheet state="visible" name="RR birth by time" sheetId="28" r:id="rId30"/>
+    <sheet state="visible" name="projected births" sheetId="2" r:id="rId4"/>
+    <sheet state="visible" name="total mortality" sheetId="3" r:id="rId5"/>
+    <sheet state="visible" name="mortality" sheetId="4" r:id="rId6"/>
+    <sheet state="visible" name="distributions" sheetId="5" r:id="rId7"/>
+    <sheet state="visible" name="birth outcome distribution" sheetId="6" r:id="rId8"/>
+    <sheet state="visible" name="RRStunting" sheetId="7" r:id="rId9"/>
+    <sheet state="visible" name="RRWasting" sheetId="8" r:id="rId10"/>
+    <sheet state="visible" name="RRBreastfeeding" sheetId="9" r:id="rId11"/>
+    <sheet state="visible" name="RR Death by Birth Outcome" sheetId="10" r:id="rId12"/>
+    <sheet state="visible" name="OR stunting progression" sheetId="11" r:id="rId13"/>
+    <sheet state="visible" name="Incidence of conditions" sheetId="12" r:id="rId14"/>
+    <sheet state="visible" name="RR diarrhoea" sheetId="13" r:id="rId15"/>
+    <sheet state="visible" name="OR stunting by condition" sheetId="14" r:id="rId16"/>
+    <sheet state="visible" name="OR stunting by birth outcome" sheetId="15" r:id="rId17"/>
+    <sheet state="visible" name="OR stunting by intervention" sheetId="16" r:id="rId18"/>
+    <sheet state="visible" name="OR stunting for complements" sheetId="17" r:id="rId19"/>
+    <sheet state="visible" name="OR appropriateBF by interv" sheetId="18" r:id="rId20"/>
+    <sheet state="visible" name="Appropriate breastfeeding" sheetId="19" r:id="rId21"/>
+    <sheet state="visible" name="Interventions coverages" sheetId="20" r:id="rId22"/>
+    <sheet state="visible" name="Interventions target population" sheetId="21" r:id="rId23"/>
+    <sheet state="visible" name="Interventions maternal" sheetId="22" r:id="rId24"/>
+    <sheet state="visible" name="Interventions affected fraction" sheetId="23" r:id="rId25"/>
+    <sheet state="visible" name="Interventions mortality eff" sheetId="24" r:id="rId26"/>
+    <sheet state="visible" name="Interventions incidence eff" sheetId="25" r:id="rId27"/>
+    <sheet state="visible" name="RR birth by type" sheetId="26" r:id="rId28"/>
+    <sheet state="visible" name="birth distribution" sheetId="27" r:id="rId29"/>
+    <sheet state="visible" name="time between births" sheetId="28" r:id="rId30"/>
+    <sheet state="visible" name="RR birth by time" sheetId="29" r:id="rId31"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="86">
   <si>
     <t>indicators</t>
   </si>
@@ -88,6 +89,12 @@
   </si>
   <si>
     <t>fraction food insecure</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>number of births</t>
   </si>
   <si>
     <t>&lt;1 month</t>
@@ -332,7 +339,7 @@
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -343,6 +350,9 @@
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <b/>
+    </font>
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -374,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -387,9 +397,24 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -397,26 +422,26 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -425,29 +450,26 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -539,6 +561,10 @@
 </file>
 
 <file path=xl/drawings/worksheetdrawing28.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/worksheetdrawing29.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -634,34 +660,283 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="33.86"/>
+    <col customWidth="1" min="2" max="2" width="15.57"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
-        <v>12.4</v>
-      </c>
-      <c r="B2" s="2">
-        <v>21.4</v>
-      </c>
-      <c r="C2" s="2">
-        <v>30.3</v>
-      </c>
-      <c r="D2" s="2">
-        <v>46.2</v>
-      </c>
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C2">
+        <v>1.0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C3">
+        <v>2.07</v>
+      </c>
+      <c r="D3" s="4">
+        <v>8.02</v>
+      </c>
+      <c r="E3" s="4">
+        <v>11.54</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C4">
+        <v>2.07</v>
+      </c>
+      <c r="D4" s="4">
+        <v>8.02</v>
+      </c>
+      <c r="E4" s="4">
+        <v>11.54</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C5">
+        <v>2.07</v>
+      </c>
+      <c r="D5" s="4">
+        <v>8.02</v>
+      </c>
+      <c r="E5" s="4">
+        <v>11.54</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C6">
+        <v>1.0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>999.99</v>
+      </c>
+      <c r="E6" s="4">
+        <v>999.99</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C7">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C8">
+        <v>1.0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C9">
+        <v>1.0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -676,63 +951,31 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>50</v>
+      <c r="A1" t="s">
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="13">
-        <v>0.23981666666666668</v>
-      </c>
-      <c r="C2" s="13">
-        <v>0.23981666666666668</v>
-      </c>
-      <c r="D2" s="13">
-        <v>0.36586416666666666</v>
-      </c>
-      <c r="E2" s="13">
-        <v>0.29612333333333335</v>
-      </c>
-      <c r="F2" s="13">
-        <v>0.18924083333333333</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.0</v>
+      <c r="A2" s="2">
+        <v>12.4</v>
+      </c>
+      <c r="B2" s="2">
+        <v>21.4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>30.3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>46.2</v>
       </c>
     </row>
   </sheetData>
@@ -741,6 +984,78 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="18">
+        <v>0.23981666666666668</v>
+      </c>
+      <c r="C2" s="18">
+        <v>0.23981666666666668</v>
+      </c>
+      <c r="D2" s="18">
+        <v>0.36586416666666666</v>
+      </c>
+      <c r="E2" s="18">
+        <v>0.29612333333333335</v>
+      </c>
+      <c r="F2" s="18">
+        <v>0.18924083333333333</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -752,27 +1067,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>1.0</v>
@@ -792,7 +1107,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <v>1.26</v>
@@ -812,7 +1127,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>1.68</v>
@@ -832,7 +1147,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>2.65</v>
@@ -855,7 +1170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -864,27 +1179,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>1.04</v>
@@ -907,7 +1222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -915,30 +1230,30 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="A2" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="10">
         <v>2.82</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="10">
         <v>1.94</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="10">
         <v>4.98</v>
       </c>
     </row>
@@ -947,7 +1262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -959,27 +1274,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2">
         <v>1.0</v>
@@ -1026,7 +1341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1038,27 +1353,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2">
         <v>1.0</v>
@@ -1078,7 +1393,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2">
         <v>1.0</v>
@@ -1098,7 +1413,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2">
         <v>1.0</v>
@@ -1118,7 +1433,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B5" s="2">
         <v>1.0</v>
@@ -1141,7 +1456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1154,41 +1469,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="15">
+        <v>61</v>
+      </c>
+      <c r="B2" s="20">
         <v>2.3</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="20">
         <v>4.6</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="20">
         <v>1.57</v>
       </c>
-      <c r="E2" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="F2" s="16">
+      <c r="E2" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="21">
         <v>1.0</v>
       </c>
     </row>
@@ -1213,7 +1528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1225,36 +1540,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>41</v>
+      <c r="C2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3">
@@ -1276,7 +1591,160 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="12.57"/>
+    <col customWidth="1" min="2" max="2" width="16.57"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6">
+        <v>2017.0</v>
+      </c>
+      <c r="B2" s="7">
+        <v>2141961.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6">
+        <v>2018.0</v>
+      </c>
+      <c r="B3" s="8" t="str">
+        <f t="shared" ref="B3:B15" si="1">$B2*1.028</f>
+        <v>2,201,936</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6">
+        <v>2019.0</v>
+      </c>
+      <c r="B4" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>2,263,590</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6">
+        <v>2020.0</v>
+      </c>
+      <c r="B5" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>2,326,971</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6">
+        <v>2021.0</v>
+      </c>
+      <c r="B6" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>2,392,126</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6">
+        <v>2022.0</v>
+      </c>
+      <c r="B7" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>2,459,105</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6">
+        <v>2023.0</v>
+      </c>
+      <c r="B8" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>2,527,960</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6">
+        <v>2024.0</v>
+      </c>
+      <c r="B9" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>2,598,743</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6">
+        <v>2025.0</v>
+      </c>
+      <c r="B10" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>2,671,508</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6">
+        <v>2026.0</v>
+      </c>
+      <c r="B11" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>2,746,310</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6">
+        <v>2027.0</v>
+      </c>
+      <c r="B12" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>2,823,207</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6">
+        <v>2028.0</v>
+      </c>
+      <c r="B13" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>2,902,257</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6">
+        <v>2029.0</v>
+      </c>
+      <c r="B14" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>2,983,520</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6">
+        <v>2030.0</v>
+      </c>
+      <c r="B15" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>3,067,058</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1290,23 +1758,23 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="18">
+        <v>55</v>
+      </c>
+      <c r="B2" s="23">
         <v>0.0</v>
       </c>
       <c r="C2" s="2">
@@ -1316,12 +1784,12 @@
         <v>60.0</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="19"/>
+      <c r="F2" s="24"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B3" s="2">
         <v>0.19</v>
@@ -1333,12 +1801,12 @@
         <v>60.0</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="19"/>
+      <c r="F3" s="24"/>
       <c r="G3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="20" t="s">
-        <v>64</v>
+      <c r="A4" s="25" t="s">
+        <v>66</v>
       </c>
       <c r="B4" s="2">
         <v>0.385</v>
@@ -1350,12 +1818,12 @@
         <v>300.0</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="19"/>
+      <c r="F4" s="24"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="20" t="s">
-        <v>65</v>
+      <c r="A5" s="25" t="s">
+        <v>67</v>
       </c>
       <c r="B5" s="2">
         <v>0.0</v>
@@ -1367,12 +1835,12 @@
         <v>10000.0</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="19"/>
+      <c r="F5" s="24"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2">
         <v>0.296</v>
@@ -1384,12 +1852,12 @@
         <v>300.0</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="19"/>
+      <c r="F6" s="24"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B7" s="2">
         <v>0.257</v>
@@ -1401,12 +1869,12 @@
         <v>20.0</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="19"/>
+      <c r="F7" s="24"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2">
         <v>0.0</v>
@@ -1418,12 +1886,12 @@
         <v>1000.0</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="19"/>
+      <c r="F8" s="24"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2">
         <v>0.0</v>
@@ -1435,7 +1903,7 @@
         <v>300.0</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="19"/>
+      <c r="F9" s="24"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10">
@@ -1540,54 +2008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="5">
-        <v>22.2</v>
-      </c>
-      <c r="B2" s="5">
-        <v>35.5</v>
-      </c>
-      <c r="C2" s="5">
-        <v>35.5</v>
-      </c>
-      <c r="D2" s="6">
-        <v>49.4</v>
-      </c>
-      <c r="E2" s="5">
-        <v>49.4</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1602,254 +2023,254 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22"/>
+        <v>71</v>
+      </c>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="C2" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="F2" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="G2" s="23">
+        <v>55</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="G2" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="F3" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="G3" s="23">
+        <v>65</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="G3" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="C4" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="F4" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="G4" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
+      <c r="A4" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="F4" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="G4" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
     </row>
     <row r="5">
-      <c r="A5" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="C5" s="24" t="str">
+      <c r="A5" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="28" t="str">
         <f>demographics!$B$5</f>
         <v>0.34</v>
       </c>
-      <c r="D5" s="24" t="str">
+      <c r="D5" s="28" t="str">
         <f>demographics!$B$5</f>
         <v>0.34</v>
       </c>
-      <c r="E5" s="24" t="str">
+      <c r="E5" s="28" t="str">
         <f>demographics!$B$5</f>
         <v>0.34</v>
       </c>
-      <c r="F5" s="24" t="str">
+      <c r="F5" s="28" t="str">
         <f>demographics!$B$5</f>
         <v>0.34</v>
       </c>
-      <c r="G5" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="21"/>
+      <c r="G5" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="C6" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="D6" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="F6" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="G6" s="23">
+        <v>61</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="C7" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="G7" s="23">
+        <v>68</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="6">
         <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="C8" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="D8" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="E8" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="G8" s="23">
+        <v>69</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="6">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="C9" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="D9" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="G9" s="23">
+        <v>70</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="6">
         <v>1.0</v>
       </c>
     </row>
@@ -1955,7 +2376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1967,135 +2388,135 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="25">
+        <v>73</v>
+      </c>
+      <c r="C2" s="29">
         <v>0.35</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="29">
         <v>0.35</v>
       </c>
-      <c r="E2" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="25">
+      <c r="E2" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="29">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="26">
+        <v>74</v>
+      </c>
+      <c r="C3" s="30">
         <v>0.1</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="30">
         <v>0.1</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="30">
         <v>0.1</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="30">
         <v>0.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="25">
+        <v>73</v>
+      </c>
+      <c r="C4" s="29">
         <v>0.31</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="29">
         <v>0.31</v>
       </c>
-      <c r="E4" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="25">
+      <c r="E4" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="29">
         <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="27" t="str">
+        <v>74</v>
+      </c>
+      <c r="C5" s="31" t="str">
         <f>demographics!$B$5</f>
         <v>0.34</v>
       </c>
-      <c r="D5" s="27" t="str">
+      <c r="D5" s="31" t="str">
         <f>demographics!$B$5</f>
         <v>0.34</v>
       </c>
-      <c r="E5" s="27" t="str">
+      <c r="E5" s="31" t="str">
         <f>demographics!$B$5</f>
         <v>0.34</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="29">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="25">
+        <v>73</v>
+      </c>
+      <c r="C6" s="29">
         <v>0.09</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="29">
         <v>0.09</v>
       </c>
-      <c r="E6" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="25">
+      <c r="E6" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="29">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="25">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="25">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="25">
-        <v>1.0</v>
-      </c>
-      <c r="F7" s="25">
+        <v>74</v>
+      </c>
+      <c r="C7" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="29">
         <v>0.0</v>
       </c>
     </row>
@@ -2104,7 +2525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2116,33 +2537,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2">
         <v>0.0</v>
@@ -2153,17 +2574,17 @@
       <c r="E2" s="2">
         <v>0.0</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="32">
         <v>0.253</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="32">
         <v>0.253</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2">
         <v>0.0</v>
@@ -2174,19 +2595,19 @@
       <c r="E3" s="2">
         <v>0.0</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="32">
         <v>0.253</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="32">
         <v>0.253</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2">
         <v>0.0</v>
@@ -2197,16 +2618,16 @@
       <c r="E4" s="2">
         <v>0.416</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="27">
         <v>0.416</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="27">
         <v>0.416</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2">
         <v>0.0</v>
@@ -2250,7 +2671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2262,33 +2683,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2">
         <v>0.0</v>
@@ -2309,7 +2730,7 @@
     <row r="3">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2">
         <v>0.0</v>
@@ -2329,10 +2750,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2">
         <v>0.0</v>
@@ -2352,150 +2773,7 @@
     </row>
     <row r="5">
       <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.52</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2">
         <v>0.0</v>
@@ -2548,157 +2826,134 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>77</v>
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2">
-        <v>3.14</v>
+        <v>0.0</v>
       </c>
       <c r="D2" s="2">
-        <v>1.73</v>
+        <v>0.0</v>
       </c>
       <c r="E2" s="2">
-        <v>1.73</v>
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2">
-        <v>1.6</v>
+        <v>0.0</v>
       </c>
       <c r="D3" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E3" s="2">
-        <v>1.57</v>
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.52</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2">
-        <v>1.6</v>
+        <v>0.0</v>
       </c>
       <c r="D4" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E4" s="2">
-        <v>1.57</v>
+        <v>0.62</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.62</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2">
-        <v>1.75</v>
+        <v>0.0</v>
       </c>
       <c r="D5" s="2">
-        <v>1.75</v>
+        <v>0.0</v>
       </c>
       <c r="E5" s="2">
-        <v>1.75</v>
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1.33</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7">
-      <c r="B7" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1.33</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1.52</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1.52</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1.52</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9">
-      <c r="B9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1.0</v>
-      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2714,59 +2969,156 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.0543</v>
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="C2" s="2">
-        <v>0.1711</v>
+        <v>3.14</v>
       </c>
       <c r="D2" s="2">
-        <v>3.0E-4</v>
+        <v>1.73</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1.73</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.009</v>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="C3" s="2">
-        <v>0.3607</v>
+        <v>1.6</v>
       </c>
       <c r="D3" s="2">
-        <v>0.0085</v>
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.57</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.2908</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.1048</v>
+      <c r="C5" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.52</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.52</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -2783,30 +3135,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.0543</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.1711</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3.0E-4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B3" s="2">
+        <v>0.009</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.3607</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.0085</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2">
-        <v>0.2258</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.0705</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.134</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.5698</v>
+      <c r="B4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.2908</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.1048</v>
       </c>
     </row>
   </sheetData>
@@ -2823,24 +3204,64 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <v>0.2258</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.0705</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.134</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.5698</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2">
         <v>1.0</v>
@@ -2857,7 +3278,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2">
         <v>1.0</v>
@@ -2874,7 +3295,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2">
         <v>1.0</v>
@@ -2903,366 +3324,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
       <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="7">
-        <v>0.003996</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="7">
-        <v>0.15484515</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0.06893107</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="7">
-        <v>0.30969031</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="7">
-        <v>0.25974026</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="7">
-        <v>0.00899101</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="7">
-        <v>0.13186813</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="7">
-        <v>0.06193806</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0.131</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.131</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0.131</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0.131</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0.203</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0.203</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0.203</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0.203</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="E12" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0.006</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0.006</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0.006</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0.09300000000000001</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0.09300000000000001</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0.09300000000000001</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0.09300000000000001</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0.034</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0.034</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0.034</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0.034</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0.102</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0.102</v>
-      </c>
-      <c r="E16" s="7">
-        <v>0.102</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0.102</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0.11599999999999999</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0.11599999999999999</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0.11599999999999999</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0.11599999999999999</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0.285</v>
-      </c>
-      <c r="D18" s="7">
-        <v>0.285</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0.285</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0.285</v>
+      <c r="A2" s="10">
+        <v>22.2</v>
+      </c>
+      <c r="B2" s="10">
+        <v>35.5</v>
+      </c>
+      <c r="C2" s="10">
+        <v>35.5</v>
+      </c>
+      <c r="D2" s="11">
+        <v>49.4</v>
+      </c>
+      <c r="E2" s="10">
+        <v>49.4</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3274,280 +3370,367 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="12">
+        <v>0.003996</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="12">
+        <v>0.15484515</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.06893107</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0.30969031</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="12">
+        <v>0.25974026</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="12">
+        <v>0.00899101</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="12">
+        <v>0.13186813</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="12">
+        <v>0.06193806</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0.131</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0.131</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.131</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0.131</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0.203</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.203</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.203</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0.203</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0.006</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0.006</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.006</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0.09300000000000001</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0.09300000000000001</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0.09300000000000001</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0.09300000000000001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0.034</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0.034</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0.034</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0.034</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0.102</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0.102</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.102</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0.102</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B17" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0.11599999999999999</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0.11599999999999999</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.11599999999999999</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0.11599999999999999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="9">
-        <v>72.414</v>
-      </c>
-      <c r="D2" s="9">
-        <v>72.414</v>
-      </c>
-      <c r="E2" s="9">
-        <v>50.928</v>
-      </c>
-      <c r="F2" s="9">
-        <v>30.281</v>
-      </c>
-      <c r="G2" s="9">
-        <v>30.859</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="9">
-        <v>17.035</v>
-      </c>
-      <c r="D3" s="9">
-        <v>17.035</v>
-      </c>
-      <c r="E3" s="9">
-        <v>22.44</v>
-      </c>
-      <c r="F3" s="9">
-        <v>25.639</v>
-      </c>
-      <c r="G3" s="9">
-        <v>31.548</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="9">
-        <v>6.386</v>
-      </c>
-      <c r="D4" s="9">
-        <v>6.386</v>
-      </c>
-      <c r="E4" s="9">
-        <v>15.042</v>
-      </c>
-      <c r="F4" s="9">
-        <v>25.718</v>
-      </c>
-      <c r="G4" s="9">
-        <v>23.329</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="9">
-        <v>4.165</v>
-      </c>
-      <c r="D5" s="9">
-        <v>4.165</v>
-      </c>
-      <c r="E5" s="9">
-        <v>11.59</v>
-      </c>
-      <c r="F5" s="9">
-        <v>18.362</v>
-      </c>
-      <c r="G5" s="9">
-        <v>14.264</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="9">
-        <v>78.902</v>
-      </c>
-      <c r="D6" s="9">
-        <v>78.902</v>
-      </c>
-      <c r="E6" s="9">
-        <v>71.711</v>
-      </c>
-      <c r="F6" s="9">
-        <v>81.568</v>
-      </c>
-      <c r="G6" s="9">
-        <v>79.006</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="9">
-        <v>11.952</v>
-      </c>
-      <c r="D7" s="9">
-        <v>11.952</v>
-      </c>
-      <c r="E7" s="9">
-        <v>17.456</v>
-      </c>
-      <c r="F7" s="9">
-        <v>13.323</v>
-      </c>
-      <c r="G7" s="9">
-        <v>15.178</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="9">
-        <v>4.441</v>
-      </c>
-      <c r="D8" s="9">
-        <v>4.441</v>
-      </c>
-      <c r="E8" s="9">
-        <v>9.671</v>
-      </c>
-      <c r="F8" s="9">
-        <v>3.591</v>
-      </c>
-      <c r="G8" s="9">
-        <v>4.166</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="9">
-        <v>4.705</v>
-      </c>
-      <c r="D9" s="9">
-        <v>4.705</v>
-      </c>
-      <c r="E9" s="9">
-        <v>1.162</v>
-      </c>
-      <c r="F9" s="9">
-        <v>1.518</v>
-      </c>
-      <c r="G9" s="9">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="10">
-        <v>52.781</v>
-      </c>
-      <c r="D10" s="10">
-        <v>29.554</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="F10" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="10">
-        <v>30.485</v>
-      </c>
-      <c r="D11" s="10">
-        <v>14.36</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="F11" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="10">
-        <v>15.035</v>
-      </c>
-      <c r="D12" s="10">
-        <v>55.307</v>
-      </c>
-      <c r="E12" s="10">
-        <v>96.353</v>
-      </c>
-      <c r="F12" s="10">
-        <v>71.798</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1.699</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0.779</v>
-      </c>
-      <c r="E13" s="10">
-        <v>3.647</v>
-      </c>
-      <c r="F13" s="10">
-        <v>28.202</v>
-      </c>
-      <c r="G13" s="2">
-        <v>100.0</v>
+      <c r="B18" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0.285</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0.285</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0.285</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0.285</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3560,28 +3743,279 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="14">
+        <v>72.414</v>
+      </c>
+      <c r="D2" s="14">
+        <v>72.414</v>
+      </c>
+      <c r="E2" s="14">
+        <v>50.928</v>
+      </c>
+      <c r="F2" s="14">
+        <v>30.281</v>
+      </c>
+      <c r="G2" s="14">
+        <v>30.859</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="14">
+        <v>17.035</v>
+      </c>
+      <c r="D3" s="14">
+        <v>17.035</v>
+      </c>
+      <c r="E3" s="14">
+        <v>22.44</v>
+      </c>
+      <c r="F3" s="14">
+        <v>25.639</v>
+      </c>
+      <c r="G3" s="14">
+        <v>31.548</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="14">
+        <v>6.386</v>
+      </c>
+      <c r="D4" s="14">
+        <v>6.386</v>
+      </c>
+      <c r="E4" s="14">
+        <v>15.042</v>
+      </c>
+      <c r="F4" s="14">
+        <v>25.718</v>
+      </c>
+      <c r="G4" s="14">
+        <v>23.329</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="14">
+        <v>4.165</v>
+      </c>
+      <c r="D5" s="14">
+        <v>4.165</v>
+      </c>
+      <c r="E5" s="14">
+        <v>11.59</v>
+      </c>
+      <c r="F5" s="14">
+        <v>18.362</v>
+      </c>
+      <c r="G5" s="14">
+        <v>14.264</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="14">
+        <v>78.902</v>
+      </c>
+      <c r="D6" s="14">
+        <v>78.902</v>
+      </c>
+      <c r="E6" s="14">
+        <v>71.711</v>
+      </c>
+      <c r="F6" s="14">
+        <v>81.568</v>
+      </c>
+      <c r="G6" s="14">
+        <v>79.006</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="14">
+        <v>11.952</v>
+      </c>
+      <c r="D7" s="14">
+        <v>11.952</v>
+      </c>
+      <c r="E7" s="14">
+        <v>17.456</v>
+      </c>
+      <c r="F7" s="14">
+        <v>13.323</v>
+      </c>
+      <c r="G7" s="14">
+        <v>15.178</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="14">
+        <v>4.441</v>
+      </c>
+      <c r="D8" s="14">
+        <v>4.441</v>
+      </c>
+      <c r="E8" s="14">
+        <v>9.671</v>
+      </c>
+      <c r="F8" s="14">
+        <v>3.591</v>
+      </c>
+      <c r="G8" s="14">
+        <v>4.166</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="14">
+        <v>4.705</v>
+      </c>
+      <c r="D9" s="14">
+        <v>4.705</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1.162</v>
+      </c>
+      <c r="F9" s="14">
+        <v>1.518</v>
+      </c>
+      <c r="G9" s="14">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="15">
+        <v>52.781</v>
+      </c>
+      <c r="D10" s="15">
+        <v>29.554</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="15">
+        <v>30.485</v>
+      </c>
+      <c r="D11" s="15">
+        <v>14.36</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C12" s="15">
+        <v>15.035</v>
+      </c>
+      <c r="D12" s="15">
+        <v>55.307</v>
+      </c>
+      <c r="E12" s="15">
+        <v>96.353</v>
+      </c>
+      <c r="F12" s="15">
+        <v>71.798</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2">
-        <v>0.0198</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.1032</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.7419</v>
+      <c r="C13" s="10">
+        <v>1.699</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.779</v>
+      </c>
+      <c r="E13" s="15">
+        <v>3.647</v>
+      </c>
+      <c r="F13" s="15">
+        <v>28.202</v>
+      </c>
+      <c r="G13" s="2">
+        <v>100.0</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3594,440 +4028,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
+      <c r="C1" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
+      <c r="A2" s="2">
+        <v>0.0198</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.1032</v>
       </c>
       <c r="C2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D2">
-        <v>1.0</v>
-      </c>
-      <c r="E2">
-        <v>1.0</v>
-      </c>
-      <c r="F2">
-        <v>1.0</v>
-      </c>
-      <c r="G2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D3">
-        <v>1.67</v>
-      </c>
-      <c r="E3">
-        <v>1.67</v>
-      </c>
-      <c r="F3">
-        <v>1.67</v>
-      </c>
-      <c r="G3">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D4">
-        <v>2.38</v>
-      </c>
-      <c r="E4">
-        <v>2.38</v>
-      </c>
-      <c r="F4">
-        <v>2.38</v>
-      </c>
-      <c r="G4">
-        <v>2.38</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D5">
-        <v>6.33</v>
-      </c>
-      <c r="E5">
-        <v>6.33</v>
-      </c>
-      <c r="F5">
-        <v>6.33</v>
-      </c>
-      <c r="G5">
-        <v>6.33</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D6">
-        <v>1.0</v>
-      </c>
-      <c r="E6">
-        <v>1.0</v>
-      </c>
-      <c r="F6">
-        <v>1.0</v>
-      </c>
-      <c r="G6">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D7">
-        <v>1.55</v>
-      </c>
-      <c r="E7">
-        <v>1.55</v>
-      </c>
-      <c r="F7">
-        <v>1.55</v>
-      </c>
-      <c r="G7">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D8">
-        <v>2.18</v>
-      </c>
-      <c r="E8">
-        <v>2.18</v>
-      </c>
-      <c r="F8">
-        <v>2.18</v>
-      </c>
-      <c r="G8">
-        <v>2.18</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D9">
-        <v>6.39</v>
-      </c>
-      <c r="E9">
-        <v>6.39</v>
-      </c>
-      <c r="F9">
-        <v>6.39</v>
-      </c>
-      <c r="G9">
-        <v>6.39</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D10">
-        <v>1.0</v>
-      </c>
-      <c r="E10">
-        <v>1.0</v>
-      </c>
-      <c r="F10">
-        <v>1.0</v>
-      </c>
-      <c r="G10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D11">
-        <v>1.0</v>
-      </c>
-      <c r="E11">
-        <v>1.0</v>
-      </c>
-      <c r="F11">
-        <v>1.0</v>
-      </c>
-      <c r="G11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D12">
-        <v>2.79</v>
-      </c>
-      <c r="E12">
-        <v>2.79</v>
-      </c>
-      <c r="F12">
-        <v>2.79</v>
-      </c>
-      <c r="G12">
-        <v>2.79</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D13">
-        <v>6.01</v>
-      </c>
-      <c r="E13">
-        <v>6.01</v>
-      </c>
-      <c r="F13">
-        <v>6.01</v>
-      </c>
-      <c r="G13">
-        <v>6.01</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D14">
-        <v>1.0</v>
-      </c>
-      <c r="E14">
-        <v>1.0</v>
-      </c>
-      <c r="F14">
-        <v>1.0</v>
-      </c>
-      <c r="G14">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D15">
-        <v>1.0</v>
-      </c>
-      <c r="E15">
-        <v>1.0</v>
-      </c>
-      <c r="F15">
-        <v>1.0</v>
-      </c>
-      <c r="G15">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D16">
-        <v>1.0</v>
-      </c>
-      <c r="E16">
-        <v>1.0</v>
-      </c>
-      <c r="F16">
-        <v>1.0</v>
-      </c>
-      <c r="G16">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D17">
-        <v>1.0</v>
-      </c>
-      <c r="E17">
-        <v>1.0</v>
-      </c>
-      <c r="F17">
-        <v>1.0</v>
-      </c>
-      <c r="G17">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D18">
-        <v>1.0</v>
-      </c>
-      <c r="E18">
-        <v>1.0</v>
-      </c>
-      <c r="F18">
-        <v>1.0</v>
-      </c>
-      <c r="G18">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D19">
-        <v>1.0</v>
-      </c>
-      <c r="E19">
-        <v>1.0</v>
-      </c>
-      <c r="F19">
-        <v>1.0</v>
-      </c>
-      <c r="G19">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D20">
-        <v>1.86</v>
-      </c>
-      <c r="E20">
-        <v>1.86</v>
-      </c>
-      <c r="F20">
-        <v>1.86</v>
-      </c>
-      <c r="G20">
-        <v>1.86</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D21">
-        <v>3.01</v>
-      </c>
-      <c r="E21">
-        <v>3.01</v>
-      </c>
-      <c r="F21">
-        <v>3.01</v>
-      </c>
-      <c r="G21">
-        <v>3.01</v>
+        <v>0.7419</v>
       </c>
     </row>
   </sheetData>
@@ -4044,33 +4062,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2">
         <v>1.0</v>
@@ -4090,70 +4108,70 @@
     </row>
     <row r="3">
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2">
         <v>1.0</v>
       </c>
       <c r="D3">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="E3">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="F3">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="G3">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2">
         <v>1.0</v>
       </c>
       <c r="D4">
-        <v>3.41</v>
+        <v>2.38</v>
       </c>
       <c r="E4">
-        <v>3.41</v>
+        <v>2.38</v>
       </c>
       <c r="F4">
-        <v>3.41</v>
+        <v>2.38</v>
       </c>
       <c r="G4">
-        <v>3.41</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2">
         <v>1.0</v>
       </c>
       <c r="D5">
-        <v>12.33</v>
+        <v>6.33</v>
       </c>
       <c r="E5">
-        <v>12.33</v>
+        <v>6.33</v>
       </c>
       <c r="F5">
-        <v>12.33</v>
+        <v>6.33</v>
       </c>
       <c r="G5">
-        <v>12.33</v>
+        <v>6.33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2">
         <v>1.0</v>
@@ -4173,70 +4191,70 @@
     </row>
     <row r="7">
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2">
         <v>1.0</v>
       </c>
       <c r="D7">
-        <v>1.92</v>
+        <v>1.55</v>
       </c>
       <c r="E7">
-        <v>1.92</v>
+        <v>1.55</v>
       </c>
       <c r="F7">
-        <v>1.92</v>
+        <v>1.55</v>
       </c>
       <c r="G7">
-        <v>1.92</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2">
         <v>1.0</v>
       </c>
       <c r="D8">
-        <v>4.66</v>
+        <v>2.18</v>
       </c>
       <c r="E8">
-        <v>4.66</v>
+        <v>2.18</v>
       </c>
       <c r="F8">
-        <v>4.66</v>
+        <v>2.18</v>
       </c>
       <c r="G8">
-        <v>4.66</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2">
         <v>1.0</v>
       </c>
       <c r="D9">
-        <v>9.68</v>
+        <v>6.39</v>
       </c>
       <c r="E9">
-        <v>9.68</v>
+        <v>6.39</v>
       </c>
       <c r="F9">
-        <v>9.68</v>
+        <v>6.39</v>
       </c>
       <c r="G9">
-        <v>9.68</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2">
         <v>1.0</v>
@@ -4256,7 +4274,7 @@
     </row>
     <row r="11">
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2">
         <v>1.0</v>
@@ -4276,50 +4294,50 @@
     </row>
     <row r="12">
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2">
         <v>1.0</v>
       </c>
       <c r="D12">
-        <v>2.58</v>
+        <v>2.79</v>
       </c>
       <c r="E12">
-        <v>2.58</v>
+        <v>2.79</v>
       </c>
       <c r="F12">
-        <v>2.58</v>
+        <v>2.79</v>
       </c>
       <c r="G12">
-        <v>2.58</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2">
         <v>1.0</v>
       </c>
       <c r="D13">
-        <v>9.63</v>
+        <v>6.01</v>
       </c>
       <c r="E13">
-        <v>9.63</v>
+        <v>6.01</v>
       </c>
       <c r="F13">
-        <v>9.63</v>
+        <v>6.01</v>
       </c>
       <c r="G13">
-        <v>9.63</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2">
         <v>1.0</v>
@@ -4339,7 +4357,7 @@
     </row>
     <row r="15">
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2">
         <v>1.0</v>
@@ -4359,7 +4377,7 @@
     </row>
     <row r="16">
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2">
         <v>1.0</v>
@@ -4379,7 +4397,7 @@
     </row>
     <row r="17">
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2">
         <v>1.0</v>
@@ -4399,10 +4417,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2">
         <v>1.0</v>
@@ -4422,62 +4440,62 @@
     </row>
     <row r="19">
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2">
         <v>1.0</v>
       </c>
       <c r="D19">
-        <v>1.65</v>
+        <v>1.0</v>
       </c>
       <c r="E19">
-        <v>1.65</v>
+        <v>1.0</v>
       </c>
       <c r="F19">
-        <v>1.65</v>
+        <v>1.0</v>
       </c>
       <c r="G19">
-        <v>1.65</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C20" s="2">
         <v>1.0</v>
       </c>
       <c r="D20">
-        <v>2.73</v>
+        <v>1.86</v>
       </c>
       <c r="E20">
-        <v>2.73</v>
+        <v>1.86</v>
       </c>
       <c r="F20">
-        <v>2.73</v>
+        <v>1.86</v>
       </c>
       <c r="G20">
-        <v>2.73</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C21" s="2">
         <v>1.0</v>
       </c>
       <c r="D21">
-        <v>11.21</v>
+        <v>3.01</v>
       </c>
       <c r="E21">
-        <v>11.21</v>
+        <v>3.01</v>
       </c>
       <c r="F21">
-        <v>11.21</v>
+        <v>3.01</v>
       </c>
       <c r="G21">
-        <v>11.21</v>
+        <v>3.01</v>
       </c>
     </row>
   </sheetData>
@@ -4486,6 +4504,456 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D2">
+        <v>1.0</v>
+      </c>
+      <c r="E2">
+        <v>1.0</v>
+      </c>
+      <c r="F2">
+        <v>1.0</v>
+      </c>
+      <c r="G2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D3">
+        <v>1.6</v>
+      </c>
+      <c r="E3">
+        <v>1.6</v>
+      </c>
+      <c r="F3">
+        <v>1.6</v>
+      </c>
+      <c r="G3">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D4">
+        <v>3.41</v>
+      </c>
+      <c r="E4">
+        <v>3.41</v>
+      </c>
+      <c r="F4">
+        <v>3.41</v>
+      </c>
+      <c r="G4">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D5">
+        <v>12.33</v>
+      </c>
+      <c r="E5">
+        <v>12.33</v>
+      </c>
+      <c r="F5">
+        <v>12.33</v>
+      </c>
+      <c r="G5">
+        <v>12.33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D6">
+        <v>1.0</v>
+      </c>
+      <c r="E6">
+        <v>1.0</v>
+      </c>
+      <c r="F6">
+        <v>1.0</v>
+      </c>
+      <c r="G6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D7">
+        <v>1.92</v>
+      </c>
+      <c r="E7">
+        <v>1.92</v>
+      </c>
+      <c r="F7">
+        <v>1.92</v>
+      </c>
+      <c r="G7">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D8">
+        <v>4.66</v>
+      </c>
+      <c r="E8">
+        <v>4.66</v>
+      </c>
+      <c r="F8">
+        <v>4.66</v>
+      </c>
+      <c r="G8">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D9">
+        <v>9.68</v>
+      </c>
+      <c r="E9">
+        <v>9.68</v>
+      </c>
+      <c r="F9">
+        <v>9.68</v>
+      </c>
+      <c r="G9">
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D10">
+        <v>1.0</v>
+      </c>
+      <c r="E10">
+        <v>1.0</v>
+      </c>
+      <c r="F10">
+        <v>1.0</v>
+      </c>
+      <c r="G10">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D11">
+        <v>1.0</v>
+      </c>
+      <c r="E11">
+        <v>1.0</v>
+      </c>
+      <c r="F11">
+        <v>1.0</v>
+      </c>
+      <c r="G11">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D12">
+        <v>2.58</v>
+      </c>
+      <c r="E12">
+        <v>2.58</v>
+      </c>
+      <c r="F12">
+        <v>2.58</v>
+      </c>
+      <c r="G12">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D13">
+        <v>9.63</v>
+      </c>
+      <c r="E13">
+        <v>9.63</v>
+      </c>
+      <c r="F13">
+        <v>9.63</v>
+      </c>
+      <c r="G13">
+        <v>9.63</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D14">
+        <v>1.0</v>
+      </c>
+      <c r="E14">
+        <v>1.0</v>
+      </c>
+      <c r="F14">
+        <v>1.0</v>
+      </c>
+      <c r="G14">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D15">
+        <v>1.0</v>
+      </c>
+      <c r="E15">
+        <v>1.0</v>
+      </c>
+      <c r="F15">
+        <v>1.0</v>
+      </c>
+      <c r="G15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D16">
+        <v>1.0</v>
+      </c>
+      <c r="E16">
+        <v>1.0</v>
+      </c>
+      <c r="F16">
+        <v>1.0</v>
+      </c>
+      <c r="G16">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D17">
+        <v>1.0</v>
+      </c>
+      <c r="E17">
+        <v>1.0</v>
+      </c>
+      <c r="F17">
+        <v>1.0</v>
+      </c>
+      <c r="G17">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D18">
+        <v>1.0</v>
+      </c>
+      <c r="E18">
+        <v>1.0</v>
+      </c>
+      <c r="F18">
+        <v>1.0</v>
+      </c>
+      <c r="G18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D19">
+        <v>1.65</v>
+      </c>
+      <c r="E19">
+        <v>1.65</v>
+      </c>
+      <c r="F19">
+        <v>1.65</v>
+      </c>
+      <c r="G19">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D20">
+        <v>2.73</v>
+      </c>
+      <c r="E20">
+        <v>2.73</v>
+      </c>
+      <c r="F20">
+        <v>2.73</v>
+      </c>
+      <c r="G20">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D21">
+        <v>11.21</v>
+      </c>
+      <c r="E21">
+        <v>11.21</v>
+      </c>
+      <c r="F21">
+        <v>11.21</v>
+      </c>
+      <c r="G21">
+        <v>11.21</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4497,33 +4965,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>1.0</v>
@@ -4543,7 +5011,7 @@
     </row>
     <row r="3">
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C3">
         <v>2.28</v>
@@ -4563,7 +5031,7 @@
     </row>
     <row r="4">
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C4">
         <v>4.62</v>
@@ -4583,7 +5051,7 @@
     </row>
     <row r="5">
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5">
         <v>10.53</v>
@@ -4603,10 +5071,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C6">
         <v>1.0</v>
@@ -4626,7 +5094,7 @@
     </row>
     <row r="7">
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>2.28</v>
@@ -4646,7 +5114,7 @@
     </row>
     <row r="8">
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C8">
         <v>4.62</v>
@@ -4666,7 +5134,7 @@
     </row>
     <row r="9">
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C9">
         <v>10.53</v>
@@ -4686,10 +5154,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>1.0</v>
@@ -4709,7 +5177,7 @@
     </row>
     <row r="11">
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>2.28</v>
@@ -4729,7 +5197,7 @@
     </row>
     <row r="12">
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>4.62</v>
@@ -4749,7 +5217,7 @@
     </row>
     <row r="13">
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>10.53</v>
@@ -4769,10 +5237,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14">
         <v>1.0</v>
@@ -4792,7 +5260,7 @@
     </row>
     <row r="15">
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15">
         <v>2.28</v>
@@ -4812,7 +5280,7 @@
     </row>
     <row r="16">
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16">
         <v>4.62</v>
@@ -4832,7 +5300,7 @@
     </row>
     <row r="17">
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C17">
         <v>10.53</v>
@@ -4852,10 +5320,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2">
         <v>1.0</v>
@@ -4875,7 +5343,7 @@
     </row>
     <row r="19">
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2">
         <v>1.0</v>
@@ -4895,7 +5363,7 @@
     </row>
     <row r="20">
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2">
         <v>1.0</v>
@@ -4915,7 +5383,7 @@
     </row>
     <row r="21">
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2">
         <v>1.0</v>
@@ -4935,10 +5403,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" s="2">
         <v>1.0</v>
@@ -4958,7 +5426,7 @@
     </row>
     <row r="23">
       <c r="B23" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C23" s="2">
         <v>1.0</v>
@@ -4978,7 +5446,7 @@
     </row>
     <row r="24">
       <c r="B24" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C24" s="2">
         <v>1.0</v>
@@ -4998,7 +5466,7 @@
     </row>
     <row r="25">
       <c r="B25" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C25" s="2">
         <v>1.0</v>
@@ -5018,10 +5486,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C26" s="2">
         <v>1.0</v>
@@ -5041,7 +5509,7 @@
     </row>
     <row r="27">
       <c r="B27" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C27" s="2">
         <v>1.0</v>
@@ -5061,7 +5529,7 @@
     </row>
     <row r="28">
       <c r="B28" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C28" s="2">
         <v>1.0</v>
@@ -5081,7 +5549,7 @@
     </row>
     <row r="29">
       <c r="B29" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C29" s="2">
         <v>1.0</v>
@@ -5098,295 +5566,6 @@
       <c r="G29">
         <v>1.0</v>
       </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="33.86"/>
-    <col customWidth="1" min="2" max="2" width="15.57"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C2">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C3">
-        <v>2.07</v>
-      </c>
-      <c r="D3" s="4">
-        <v>8.02</v>
-      </c>
-      <c r="E3" s="4">
-        <v>11.54</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C4">
-        <v>2.07</v>
-      </c>
-      <c r="D4" s="4">
-        <v>8.02</v>
-      </c>
-      <c r="E4" s="4">
-        <v>11.54</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C5">
-        <v>2.07</v>
-      </c>
-      <c r="D5" s="4">
-        <v>8.02</v>
-      </c>
-      <c r="E5" s="4">
-        <v>11.54</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C6">
-        <v>1.0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>999.99</v>
-      </c>
-      <c r="E6" s="4">
-        <v>999.99</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C7">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C8">
-        <v>1.0</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C9">
-        <v>1.0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/InputForCode_Kenya.xlsx
+++ b/InputForCode_Kenya.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="89">
   <si>
     <t>indicators</t>
   </si>
@@ -97,6 +97,18 @@
     <t>number of births</t>
   </si>
   <si>
+    <t>neonatal</t>
+  </si>
+  <si>
+    <t>infant</t>
+  </si>
+  <si>
+    <t>under 5</t>
+  </si>
+  <si>
+    <t>Cause</t>
+  </si>
+  <si>
     <t>&lt;1 month</t>
   </si>
   <si>
@@ -110,9 +122,6 @@
   </si>
   <si>
     <t>24-59 months</t>
-  </si>
-  <si>
-    <t>Cause</t>
   </si>
   <si>
     <t>Neonatal diarrhea</t>
@@ -414,9 +423,6 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
@@ -439,6 +445,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -667,24 +676,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" s="4">
         <v>1.0</v>
@@ -703,7 +712,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B3" s="4">
         <v>1.0</v>
@@ -722,7 +731,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4" s="4">
         <v>1.0</v>
@@ -741,7 +750,7 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B5" s="4">
         <v>1.0</v>
@@ -760,7 +769,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B6" s="4">
         <v>1.0</v>
@@ -779,7 +788,7 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" s="4">
         <v>1.0</v>
@@ -798,7 +807,7 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B8" s="4">
         <v>1.0</v>
@@ -817,7 +826,7 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B9" s="4">
         <v>1.0</v>
@@ -952,16 +961,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -992,47 +1001,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="18">
+        <v>25</v>
+      </c>
+      <c r="B2" s="17">
         <v>0.23981666666666668</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="17">
         <v>0.23981666666666668</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="17">
         <v>0.36586416666666666</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="17">
         <v>0.29612333333333335</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="17">
         <v>0.18924083333333333</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2">
         <v>0.0</v>
@@ -1067,27 +1076,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>1.0</v>
@@ -1107,7 +1116,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>1.26</v>
@@ -1127,7 +1136,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>1.68</v>
@@ -1147,7 +1156,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>2.65</v>
@@ -1179,27 +1188,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>1.04</v>
@@ -1230,17 +1239,17 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>44</v>
+      <c r="A1" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -1274,27 +1283,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2">
         <v>1.0</v>
@@ -1353,27 +1362,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2">
         <v>1.0</v>
@@ -1393,7 +1402,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B3" s="2">
         <v>1.0</v>
@@ -1413,7 +1422,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2">
         <v>1.0</v>
@@ -1433,7 +1442,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2">
         <v>1.0</v>
@@ -1469,41 +1478,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="20">
+        <v>64</v>
+      </c>
+      <c r="B2" s="19">
         <v>2.3</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="19">
         <v>4.6</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="19">
         <v>1.57</v>
       </c>
-      <c r="E2" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="F2" s="21">
+      <c r="E2" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="20">
         <v>1.0</v>
       </c>
     </row>
@@ -1540,36 +1549,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>42</v>
+      <c r="A2" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>45</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -1758,21 +1767,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B2" s="23">
         <v>0.0</v>
@@ -1789,7 +1798,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2">
         <v>0.19</v>
@@ -1806,7 +1815,7 @@
     </row>
     <row r="4">
       <c r="A4" s="25" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B4" s="2">
         <v>0.385</v>
@@ -1823,7 +1832,7 @@
     </row>
     <row r="5">
       <c r="A5" s="25" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B5" s="2">
         <v>0.0</v>
@@ -1840,7 +1849,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B6" s="2">
         <v>0.296</v>
@@ -1857,7 +1866,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B7" s="2">
         <v>0.257</v>
@@ -1874,7 +1883,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B8" s="2">
         <v>0.0</v>
@@ -1891,7 +1900,7 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B9" s="2">
         <v>0.0</v>
@@ -2023,32 +2032,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B2" s="6">
         <v>0.0</v>
@@ -2071,7 +2080,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B3" s="6">
         <v>0.0</v>
@@ -2094,7 +2103,7 @@
     </row>
     <row r="4">
       <c r="A4" s="25" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B4" s="28">
         <v>0.0</v>
@@ -2137,7 +2146,7 @@
     </row>
     <row r="5">
       <c r="A5" s="25" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B5" s="28">
         <v>0.0</v>
@@ -2184,7 +2193,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B6" s="6">
         <v>1.0</v>
@@ -2207,7 +2216,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B7" s="6">
         <v>0.0</v>
@@ -2230,7 +2239,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B8" s="6">
         <v>0.0</v>
@@ -2253,7 +2262,7 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B9" s="6">
         <v>0.0</v>
@@ -2388,30 +2397,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C2" s="29">
         <v>0.35</v>
@@ -2428,7 +2437,7 @@
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C3" s="30">
         <v>0.1</v>
@@ -2445,10 +2454,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C4" s="29">
         <v>0.31</v>
@@ -2465,7 +2474,7 @@
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C5" s="31" t="str">
         <f>demographics!$B$5</f>
@@ -2485,10 +2494,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C6" s="29">
         <v>0.09</v>
@@ -2505,7 +2514,7 @@
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C7" s="29">
         <v>1.0</v>
@@ -2537,33 +2546,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2">
         <v>0.0</v>
@@ -2584,7 +2593,7 @@
     <row r="3">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2">
         <v>0.0</v>
@@ -2604,10 +2613,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2">
         <v>0.0</v>
@@ -2627,7 +2636,7 @@
     </row>
     <row r="5">
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2">
         <v>0.0</v>
@@ -2683,33 +2692,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2">
         <v>0.0</v>
@@ -2730,7 +2739,7 @@
     <row r="3">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2">
         <v>0.0</v>
@@ -2750,10 +2759,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2">
         <v>0.0</v>
@@ -2773,7 +2782,7 @@
     </row>
     <row r="5">
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2">
         <v>0.0</v>
@@ -2826,33 +2835,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2">
         <v>0.0</v>
@@ -2873,7 +2882,7 @@
     <row r="3">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2">
         <v>0.0</v>
@@ -2893,10 +2902,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2">
         <v>0.0</v>
@@ -2916,7 +2925,7 @@
     </row>
     <row r="5">
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2">
         <v>0.0</v>
@@ -2969,27 +2978,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2">
         <v>3.14</v>
@@ -3004,7 +3013,7 @@
     <row r="3">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2">
         <v>1.6</v>
@@ -3019,7 +3028,7 @@
     <row r="4">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2">
         <v>1.6</v>
@@ -3033,10 +3042,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2">
         <v>1.75</v>
@@ -3050,7 +3059,7 @@
     </row>
     <row r="6">
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C6" s="2">
         <v>1.4</v>
@@ -3064,7 +3073,7 @@
     </row>
     <row r="7">
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2">
         <v>1.4</v>
@@ -3078,10 +3087,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2">
         <v>1.52</v>
@@ -3095,7 +3104,7 @@
     </row>
     <row r="9">
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C9" s="2">
         <v>1.2</v>
@@ -3109,7 +3118,7 @@
     </row>
     <row r="10">
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C10" s="2">
         <v>1.2</v>
@@ -3135,22 +3144,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2">
         <v>0.0543</v>
@@ -3164,7 +3173,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2">
         <v>0.009</v>
@@ -3178,7 +3187,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B4" s="2">
         <v>0.0</v>
@@ -3204,16 +3213,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2">
@@ -3244,24 +3253,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2">
         <v>1.0</v>
@@ -3278,7 +3287,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2">
         <v>1.0</v>
@@ -3295,7 +3304,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2">
         <v>1.0</v>
@@ -3323,20 +3332,14 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2">
@@ -3347,12 +3350,6 @@
         <v>35.5</v>
       </c>
       <c r="C2" s="10">
-        <v>35.5</v>
-      </c>
-      <c r="D2" s="11">
-        <v>49.4</v>
-      </c>
-      <c r="E2" s="10">
         <v>49.4</v>
       </c>
     </row>
@@ -3371,29 +3368,29 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="12">
+        <v>17</v>
+      </c>
+      <c r="B2" s="11">
         <v>0.003996</v>
       </c>
       <c r="C2" s="2">
@@ -3411,9 +3408,9 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="12">
+        <v>18</v>
+      </c>
+      <c r="B3" s="11">
         <v>0.15484515</v>
       </c>
       <c r="C3" s="2">
@@ -3431,9 +3428,9 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="12">
+        <v>19</v>
+      </c>
+      <c r="B4" s="11">
         <v>0.06893107</v>
       </c>
       <c r="C4" s="2">
@@ -3451,9 +3448,9 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="12">
+        <v>20</v>
+      </c>
+      <c r="B5" s="11">
         <v>0.30969031</v>
       </c>
       <c r="C5" s="2">
@@ -3471,9 +3468,9 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="12">
+        <v>21</v>
+      </c>
+      <c r="B6" s="11">
         <v>0.25974026</v>
       </c>
       <c r="C6" s="2">
@@ -3491,9 +3488,9 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="12">
+        <v>22</v>
+      </c>
+      <c r="B7" s="11">
         <v>0.00899101</v>
       </c>
       <c r="C7" s="2">
@@ -3511,9 +3508,9 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="12">
+        <v>23</v>
+      </c>
+      <c r="B8" s="11">
         <v>0.13186813</v>
       </c>
       <c r="C8" s="2">
@@ -3531,9 +3528,9 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="12">
+        <v>24</v>
+      </c>
+      <c r="B9" s="11">
         <v>0.06193806</v>
       </c>
       <c r="C9" s="2">
@@ -3551,181 +3548,181 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="C10" s="12">
+        <v>25</v>
+      </c>
+      <c r="B10" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="11">
         <v>0.131</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>0.131</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>0.131</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>0.131</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="C11" s="12">
+        <v>26</v>
+      </c>
+      <c r="B11" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="11">
         <v>0.203</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>0.203</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>0.203</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>0.203</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="C12" s="12">
+        <v>27</v>
+      </c>
+      <c r="B12" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="C12" s="11">
         <v>0.03</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>0.03</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>0.03</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>0.03</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2">
         <v>0.0</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>0.006</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>0.006</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>0.006</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>0.006</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2">
         <v>0.0</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>0.09300000000000001</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <v>0.09300000000000001</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <v>0.09300000000000001</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>0.09300000000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2">
         <v>0.0</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>0.034</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>0.034</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <v>0.034</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="11">
         <v>0.034</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2">
         <v>0.0</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>0.102</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <v>0.102</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <v>0.102</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <v>0.102</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2">
         <v>0.0</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>0.11599999999999999</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <v>0.11599999999999999</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>0.11599999999999999</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <v>0.11599999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2">
         <v>0.0</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>0.285</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <v>0.285</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="11">
         <v>0.285</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="11">
         <v>0.285</v>
       </c>
     </row>
@@ -3743,210 +3740,210 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="14">
+        <v>37</v>
+      </c>
+      <c r="C2" s="13">
         <v>72.414</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="13">
         <v>72.414</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="13">
         <v>50.928</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <v>30.281</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="13">
         <v>30.859</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="14">
+        <v>38</v>
+      </c>
+      <c r="C3" s="13">
         <v>17.035</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>17.035</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>22.44</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <v>25.639</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="13">
         <v>31.548</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="14">
+        <v>39</v>
+      </c>
+      <c r="C4" s="13">
         <v>6.386</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>6.386</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>15.042</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>25.718</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <v>23.329</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="14">
+        <v>40</v>
+      </c>
+      <c r="C5" s="13">
         <v>4.165</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>4.165</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>11.59</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>18.362</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="13">
         <v>14.264</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="14">
+        <v>37</v>
+      </c>
+      <c r="C6" s="13">
         <v>78.902</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>78.902</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>71.711</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="13">
         <v>81.568</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="13">
         <v>79.006</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="14">
+        <v>38</v>
+      </c>
+      <c r="C7" s="13">
         <v>11.952</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>11.952</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>17.456</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="13">
         <v>13.323</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="13">
         <v>15.178</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="14">
+        <v>39</v>
+      </c>
+      <c r="C8" s="13">
         <v>4.441</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>4.441</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>9.671</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="13">
         <v>3.591</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <v>4.166</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="14">
+        <v>40</v>
+      </c>
+      <c r="C9" s="13">
         <v>4.705</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>4.705</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>1.162</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="13">
         <v>1.518</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="13">
         <v>1.65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="15">
+        <v>43</v>
+      </c>
+      <c r="C10" s="14">
         <v>52.781</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <v>29.554</v>
       </c>
-      <c r="E10" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="F10" s="16">
+      <c r="E10" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="F10" s="15">
         <v>0.0</v>
       </c>
       <c r="G10" s="2">
@@ -3955,18 +3952,18 @@
     </row>
     <row r="11">
       <c r="B11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="15">
+        <v>44</v>
+      </c>
+      <c r="C11" s="14">
         <v>30.485</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <v>14.36</v>
       </c>
-      <c r="E11" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="F11" s="17">
+      <c r="E11" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="F11" s="16">
         <v>0.0</v>
       </c>
       <c r="G11" s="2">
@@ -3975,18 +3972,18 @@
     </row>
     <row r="12">
       <c r="B12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="15">
+        <v>45</v>
+      </c>
+      <c r="C12" s="14">
         <v>15.035</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <v>55.307</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="14">
         <v>96.353</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="14">
         <v>71.798</v>
       </c>
       <c r="G12" s="2">
@@ -3995,7 +3992,7 @@
     </row>
     <row r="13">
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C13" s="10">
         <v>1.699</v>
@@ -4003,10 +4000,10 @@
       <c r="D13" s="10">
         <v>0.779</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <v>3.647</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <v>28.202</v>
       </c>
       <c r="G13" s="2">
@@ -4028,13 +4025,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -4062,33 +4059,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2">
         <v>1.0</v>
@@ -4108,7 +4105,7 @@
     </row>
     <row r="3">
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2">
         <v>1.0</v>
@@ -4128,7 +4125,7 @@
     </row>
     <row r="4">
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2">
         <v>1.0</v>
@@ -4148,7 +4145,7 @@
     </row>
     <row r="5">
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2">
         <v>1.0</v>
@@ -4168,10 +4165,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2">
         <v>1.0</v>
@@ -4191,7 +4188,7 @@
     </row>
     <row r="7">
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2">
         <v>1.0</v>
@@ -4211,7 +4208,7 @@
     </row>
     <row r="8">
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2">
         <v>1.0</v>
@@ -4231,7 +4228,7 @@
     </row>
     <row r="9">
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2">
         <v>1.0</v>
@@ -4251,10 +4248,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2">
         <v>1.0</v>
@@ -4274,7 +4271,7 @@
     </row>
     <row r="11">
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2">
         <v>1.0</v>
@@ -4294,7 +4291,7 @@
     </row>
     <row r="12">
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2">
         <v>1.0</v>
@@ -4314,7 +4311,7 @@
     </row>
     <row r="13">
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2">
         <v>1.0</v>
@@ -4334,10 +4331,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2">
         <v>1.0</v>
@@ -4357,7 +4354,7 @@
     </row>
     <row r="15">
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2">
         <v>1.0</v>
@@ -4377,7 +4374,7 @@
     </row>
     <row r="16">
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2">
         <v>1.0</v>
@@ -4397,7 +4394,7 @@
     </row>
     <row r="17">
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2">
         <v>1.0</v>
@@ -4417,10 +4414,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2">
         <v>1.0</v>
@@ -4440,7 +4437,7 @@
     </row>
     <row r="19">
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2">
         <v>1.0</v>
@@ -4460,7 +4457,7 @@
     </row>
     <row r="20">
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2">
         <v>1.0</v>
@@ -4480,7 +4477,7 @@
     </row>
     <row r="21">
       <c r="B21" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C21" s="2">
         <v>1.0</v>
@@ -4512,33 +4509,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2">
         <v>1.0</v>
@@ -4558,7 +4555,7 @@
     </row>
     <row r="3">
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2">
         <v>1.0</v>
@@ -4578,7 +4575,7 @@
     </row>
     <row r="4">
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2">
         <v>1.0</v>
@@ -4598,7 +4595,7 @@
     </row>
     <row r="5">
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2">
         <v>1.0</v>
@@ -4618,10 +4615,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2">
         <v>1.0</v>
@@ -4641,7 +4638,7 @@
     </row>
     <row r="7">
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2">
         <v>1.0</v>
@@ -4661,7 +4658,7 @@
     </row>
     <row r="8">
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2">
         <v>1.0</v>
@@ -4681,7 +4678,7 @@
     </row>
     <row r="9">
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2">
         <v>1.0</v>
@@ -4701,10 +4698,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2">
         <v>1.0</v>
@@ -4724,7 +4721,7 @@
     </row>
     <row r="11">
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2">
         <v>1.0</v>
@@ -4744,7 +4741,7 @@
     </row>
     <row r="12">
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2">
         <v>1.0</v>
@@ -4764,7 +4761,7 @@
     </row>
     <row r="13">
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2">
         <v>1.0</v>
@@ -4784,10 +4781,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2">
         <v>1.0</v>
@@ -4807,7 +4804,7 @@
     </row>
     <row r="15">
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2">
         <v>1.0</v>
@@ -4827,7 +4824,7 @@
     </row>
     <row r="16">
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2">
         <v>1.0</v>
@@ -4847,7 +4844,7 @@
     </row>
     <row r="17">
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2">
         <v>1.0</v>
@@ -4867,10 +4864,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2">
         <v>1.0</v>
@@ -4890,7 +4887,7 @@
     </row>
     <row r="19">
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2">
         <v>1.0</v>
@@ -4910,7 +4907,7 @@
     </row>
     <row r="20">
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2">
         <v>1.0</v>
@@ -4930,7 +4927,7 @@
     </row>
     <row r="21">
       <c r="B21" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C21" s="2">
         <v>1.0</v>
@@ -4965,33 +4962,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C2">
         <v>1.0</v>
@@ -5011,7 +5008,7 @@
     </row>
     <row r="3">
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C3">
         <v>2.28</v>
@@ -5031,7 +5028,7 @@
     </row>
     <row r="4">
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C4">
         <v>4.62</v>
@@ -5051,7 +5048,7 @@
     </row>
     <row r="5">
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C5">
         <v>10.53</v>
@@ -5071,10 +5068,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>1.0</v>
@@ -5094,7 +5091,7 @@
     </row>
     <row r="7">
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>2.28</v>
@@ -5114,7 +5111,7 @@
     </row>
     <row r="8">
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C8">
         <v>4.62</v>
@@ -5134,7 +5131,7 @@
     </row>
     <row r="9">
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>10.53</v>
@@ -5154,10 +5151,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>1.0</v>
@@ -5177,7 +5174,7 @@
     </row>
     <row r="11">
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C11">
         <v>2.28</v>
@@ -5197,7 +5194,7 @@
     </row>
     <row r="12">
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C12">
         <v>4.62</v>
@@ -5217,7 +5214,7 @@
     </row>
     <row r="13">
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C13">
         <v>10.53</v>
@@ -5237,10 +5234,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C14">
         <v>1.0</v>
@@ -5260,7 +5257,7 @@
     </row>
     <row r="15">
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C15">
         <v>2.28</v>
@@ -5280,7 +5277,7 @@
     </row>
     <row r="16">
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C16">
         <v>4.62</v>
@@ -5300,7 +5297,7 @@
     </row>
     <row r="17">
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C17">
         <v>10.53</v>
@@ -5320,10 +5317,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2">
         <v>1.0</v>
@@ -5343,7 +5340,7 @@
     </row>
     <row r="19">
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2">
         <v>1.0</v>
@@ -5363,7 +5360,7 @@
     </row>
     <row r="20">
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2">
         <v>1.0</v>
@@ -5383,7 +5380,7 @@
     </row>
     <row r="21">
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2">
         <v>1.0</v>
@@ -5403,10 +5400,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2">
         <v>1.0</v>
@@ -5426,7 +5423,7 @@
     </row>
     <row r="23">
       <c r="B23" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C23" s="2">
         <v>1.0</v>
@@ -5446,7 +5443,7 @@
     </row>
     <row r="24">
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C24" s="2">
         <v>1.0</v>
@@ -5466,7 +5463,7 @@
     </row>
     <row r="25">
       <c r="B25" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C25" s="2">
         <v>1.0</v>
@@ -5486,10 +5483,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C26" s="2">
         <v>1.0</v>
@@ -5509,7 +5506,7 @@
     </row>
     <row r="27">
       <c r="B27" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C27" s="2">
         <v>1.0</v>
@@ -5529,7 +5526,7 @@
     </row>
     <row r="28">
       <c r="B28" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C28" s="2">
         <v>1.0</v>
@@ -5549,7 +5546,7 @@
     </row>
     <row r="29">
       <c r="B29" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C29" s="2">
         <v>1.0</v>

--- a/InputForCode_Kenya.xlsx
+++ b/InputForCode_Kenya.xlsx
@@ -393,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -437,6 +437,9 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
@@ -471,6 +474,9 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
@@ -974,17 +980,17 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
-        <v>12.4</v>
-      </c>
-      <c r="B2" s="2">
-        <v>21.4</v>
-      </c>
-      <c r="C2" s="2">
-        <v>30.3</v>
-      </c>
-      <c r="D2" s="2">
-        <v>46.2</v>
+      <c r="A2" s="17">
+        <v>11.2</v>
+      </c>
+      <c r="B2" s="17">
+        <v>268.7</v>
+      </c>
+      <c r="C2" s="17">
+        <v>67.3</v>
+      </c>
+      <c r="D2" s="17">
+        <v>67.3</v>
       </c>
     </row>
   </sheetData>
@@ -1023,19 +1029,19 @@
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="18">
         <v>0.23981666666666668</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="18">
         <v>0.23981666666666668</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="18">
         <v>0.36586416666666666</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="18">
         <v>0.29612333333333335</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="18">
         <v>0.18924083333333333</v>
       </c>
     </row>
@@ -1239,16 +1245,16 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1500,19 +1506,19 @@
       <c r="A2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="20">
         <v>2.3</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="20">
         <v>4.6</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="20">
         <v>1.57</v>
       </c>
-      <c r="E2" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="F2" s="20">
+      <c r="E2" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="21">
         <v>1.0</v>
       </c>
     </row>
@@ -1565,19 +1571,19 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1783,7 +1789,7 @@
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="24">
         <v>0.0</v>
       </c>
       <c r="C2" s="2">
@@ -1793,7 +1799,7 @@
         <v>60.0</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="24"/>
+      <c r="F2" s="25"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3">
@@ -1810,11 +1816,11 @@
         <v>60.0</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="24"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="26" t="s">
         <v>69</v>
       </c>
       <c r="B4" s="2">
@@ -1827,11 +1833,11 @@
         <v>300.0</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="24"/>
+      <c r="F4" s="25"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="26" t="s">
         <v>70</v>
       </c>
       <c r="B5" s="2">
@@ -1844,7 +1850,7 @@
         <v>10000.0</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="24"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6">
@@ -1861,7 +1867,7 @@
         <v>300.0</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="24"/>
+      <c r="F6" s="25"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7">
@@ -1878,7 +1884,7 @@
         <v>20.0</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="24"/>
+      <c r="F7" s="25"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8">
@@ -1895,7 +1901,7 @@
         <v>1000.0</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="24"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9">
@@ -1912,7 +1918,7 @@
         <v>300.0</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="24"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10">
@@ -2052,8 +2058,8 @@
       <c r="G1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -2102,94 +2108,92 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="C4" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="F4" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="G4" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
+      <c r="B4" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="F4" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
     </row>
     <row r="5">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="C5" s="28" t="str">
+      <c r="B5" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="29" t="str">
         <f>demographics!$B$5</f>
         <v>0.34</v>
       </c>
-      <c r="D5" s="28" t="str">
+      <c r="E5" s="29" t="str">
         <f>demographics!$B$5</f>
         <v>0.34</v>
       </c>
-      <c r="E5" s="28" t="str">
-        <f>demographics!$B$5</f>
-        <v>0.34</v>
-      </c>
-      <c r="F5" s="28" t="str">
-        <f>demographics!$B$5</f>
-        <v>0.34</v>
-      </c>
-      <c r="G5" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26"/>
+      <c r="F5" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -2422,16 +2426,16 @@
       <c r="B2" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="31">
         <v>0.35</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="31">
         <v>0.35</v>
       </c>
-      <c r="E2" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="29">
+      <c r="E2" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="31">
         <v>0.0</v>
       </c>
     </row>
@@ -2439,16 +2443,16 @@
       <c r="B3" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="32">
         <v>0.1</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="32">
         <v>0.1</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="32">
         <v>0.1</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="32">
         <v>0.1</v>
       </c>
     </row>
@@ -2459,16 +2463,16 @@
       <c r="B4" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="31">
         <v>0.31</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="31">
         <v>0.31</v>
       </c>
-      <c r="E4" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="29">
+      <c r="E4" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="31">
         <v>0.0</v>
       </c>
     </row>
@@ -2476,19 +2480,19 @@
       <c r="B5" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="31" t="str">
+      <c r="C5" s="33" t="str">
         <f>demographics!$B$5</f>
         <v>0.34</v>
       </c>
-      <c r="D5" s="31" t="str">
+      <c r="D5" s="33" t="str">
         <f>demographics!$B$5</f>
         <v>0.34</v>
       </c>
-      <c r="E5" s="31" t="str">
+      <c r="E5" s="33" t="str">
         <f>demographics!$B$5</f>
         <v>0.34</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="31">
         <v>0.0</v>
       </c>
     </row>
@@ -2499,16 +2503,16 @@
       <c r="B6" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="31">
         <v>0.09</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="31">
         <v>0.09</v>
       </c>
-      <c r="E6" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="29">
+      <c r="E6" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="31">
         <v>0.0</v>
       </c>
     </row>
@@ -2516,16 +2520,16 @@
       <c r="B7" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="F7" s="29">
+      <c r="C7" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="31">
         <v>0.0</v>
       </c>
     </row>
@@ -2583,10 +2587,10 @@
       <c r="E2" s="2">
         <v>0.0</v>
       </c>
-      <c r="F2" s="32">
+      <c r="F2" s="34">
         <v>0.253</v>
       </c>
-      <c r="G2" s="32">
+      <c r="G2" s="34">
         <v>0.253</v>
       </c>
     </row>
@@ -2604,10 +2608,10 @@
       <c r="E3" s="2">
         <v>0.0</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="34">
         <v>0.253</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="34">
         <v>0.253</v>
       </c>
     </row>
@@ -2627,10 +2631,10 @@
       <c r="E4" s="2">
         <v>0.416</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="28">
         <v>0.416</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="28">
         <v>0.416</v>
       </c>
     </row>

--- a/InputForCode_Kenya.xlsx
+++ b/InputForCode_Kenya.xlsx
@@ -22,16 +22,12 @@
     <sheet state="visible" name="OR stunting for complements" sheetId="17" r:id="rId19"/>
     <sheet state="visible" name="OR appropriateBF by interv" sheetId="18" r:id="rId20"/>
     <sheet state="visible" name="Appropriate breastfeeding" sheetId="19" r:id="rId21"/>
-    <sheet state="visible" name="Interventions coverages" sheetId="20" r:id="rId22"/>
+    <sheet state="visible" name="Interventions cost and coverage" sheetId="20" r:id="rId22"/>
     <sheet state="visible" name="Interventions target population" sheetId="21" r:id="rId23"/>
     <sheet state="visible" name="Interventions maternal" sheetId="22" r:id="rId24"/>
     <sheet state="visible" name="Interventions affected fraction" sheetId="23" r:id="rId25"/>
     <sheet state="visible" name="Interventions mortality eff" sheetId="24" r:id="rId26"/>
     <sheet state="visible" name="Interventions incidence eff" sheetId="25" r:id="rId27"/>
-    <sheet state="visible" name="RR birth by type" sheetId="26" r:id="rId28"/>
-    <sheet state="visible" name="birth distribution" sheetId="27" r:id="rId29"/>
-    <sheet state="visible" name="time between births" sheetId="28" r:id="rId30"/>
-    <sheet state="visible" name="RR birth by time" sheetId="29" r:id="rId31"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -71,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="79">
   <si>
     <t>indicators</t>
   </si>
@@ -308,36 +304,6 @@
   </si>
   <si>
     <t>Interventions</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>&lt;18 years</t>
-  </si>
-  <si>
-    <t>18-34 years</t>
-  </si>
-  <si>
-    <t>35-49 years</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>second or third</t>
-  </si>
-  <si>
-    <t>greater than third</t>
-  </si>
-  <si>
-    <t>&lt;18 months</t>
-  </si>
-  <si>
-    <t>18-23 months</t>
-  </si>
-  <si>
-    <t>&lt;24 months</t>
   </si>
 </sst>
 </file>
@@ -567,22 +533,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing26.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing27.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing28.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing29.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
 <file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
@@ -2973,361 +2923,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3.14</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1.73</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1.52</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1.52</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.0543</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.1711</v>
-      </c>
-      <c r="D2" s="2">
-        <v>3.0E-4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.009</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.3607</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.0085</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.2908</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.1048</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2">
-        <v>0.2258</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.0705</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.134</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.5698</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3.03</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1.77</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1.49</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1.1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1.41</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.18</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>

--- a/InputForCode_Kenya.xlsx
+++ b/InputForCode_Kenya.xlsx
@@ -406,7 +406,12 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -414,9 +419,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -980,39 +982,39 @@
         <v>25</v>
       </c>
       <c r="B2" s="18">
-        <v>0.23981666666666668</v>
+        <v>2.878</v>
       </c>
       <c r="C2" s="18">
-        <v>0.23981666666666668</v>
+        <v>2.878</v>
       </c>
       <c r="D2" s="18">
-        <v>0.36586416666666666</v>
+        <v>4.39</v>
       </c>
       <c r="E2" s="18">
-        <v>0.29612333333333335</v>
+        <v>3.553</v>
       </c>
       <c r="F2" s="18">
-        <v>0.18924083333333333</v>
+        <v>2.271</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.0</v>
+      <c r="B3" s="19">
+        <v>0.26</v>
+      </c>
+      <c r="C3" s="19">
+        <v>0.26</v>
+      </c>
+      <c r="D3" s="19">
+        <v>0.26</v>
+      </c>
+      <c r="E3" s="19">
+        <v>0.26</v>
+      </c>
+      <c r="F3" s="19">
+        <v>0.26</v>
       </c>
     </row>
   </sheetData>
@@ -1195,16 +1197,16 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1456,19 +1458,19 @@
       <c r="A2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="21">
         <v>2.3</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="21">
         <v>4.6</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="21">
         <v>1.57</v>
       </c>
-      <c r="E2" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="F2" s="21">
+      <c r="E2" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="22">
         <v>1.0</v>
       </c>
     </row>
@@ -1521,16 +1523,16 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="19" t="s">
         <v>45</v>
       </c>
       <c r="E2" s="23" t="s">
